--- a/comparison_results/PSO_PID_With_Disturbance_Test_7.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_7.xlsx
@@ -545,34 +545,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04989264553727082</v>
+        <v>0.02532874199173293</v>
       </c>
       <c r="C2" t="n">
-        <v>2.032032032032032</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D2" t="n">
-        <v>1.627499949481956</v>
+        <v>0.1895591720368628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01035202121891141</v>
+        <v>0.01127200399706836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03477048761986629</v>
+        <v>0.04049983194251736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3858921381298042</v>
+        <v>0.4058670691590324</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1329517520661136</v>
+        <v>0.1386756685733612</v>
       </c>
       <c r="J2" t="n">
-        <v>14.98582954019683</v>
+        <v>13.1334392714502</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9601302366421112</v>
+        <v>0.9605878664824272</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -581,28 +581,28 @@
         <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05609738029397265</v>
+        <v>0.001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9667300260476771</v>
+        <v>1.158499089689826</v>
       </c>
       <c r="P2" t="n">
         <v>0.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07002896914116551</v>
+        <v>0.02786094296098574</v>
       </c>
       <c r="R2" t="n">
-        <v>1.765040425924918</v>
+        <v>0.3637006580139478</v>
       </c>
       <c r="S2" t="n">
-        <v>9.999812255500418</v>
+        <v>2.517973054876232</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002243354007674034</v>
+        <v>0.04066933506778339</v>
       </c>
       <c r="U2" t="n">
-        <v>0.19540267342844</v>
+        <v>1.833910969979992</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05716806721003815</v>
+        <v>0.05802909647060302</v>
       </c>
       <c r="C3" t="n">
-        <v>2.302302302302302</v>
+        <v>2.232232232232232</v>
       </c>
       <c r="D3" t="n">
-        <v>2.323457257178085</v>
+        <v>3.567195027450468</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01139028269791073</v>
+        <v>0.008908173253080676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04155335606096409</v>
+        <v>0.03738325817974415</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4150524342180099</v>
+        <v>0.401717481465264</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1392542042968633</v>
+        <v>0.1336366792119735</v>
       </c>
       <c r="J3" t="n">
-        <v>13.05711694438875</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9586261066117266</v>
+        <v>0.9628297380131666</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>6.570324653736746</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1</v>
+        <v>0.01743298711959233</v>
       </c>
       <c r="O3" t="n">
-        <v>1.944610158040838</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.149672956844585</v>
+        <v>3.059952626117141</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01033596790074337</v>
+        <v>0.07621425924885368</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2673154451009611</v>
+        <v>0.533318762831281</v>
       </c>
       <c r="S3" t="n">
-        <v>5.924241084436723</v>
+        <v>9.79192921603307</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.696830612881334</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0576224670034086</v>
+        <v>0.02378963642782176</v>
       </c>
       <c r="C4" t="n">
-        <v>2.242242242242242</v>
+        <v>0.8708708708708709</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2581442464127</v>
+        <v>0.1625480573926724</v>
       </c>
       <c r="E4" t="n">
         <v>0.5705705705705706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01115420585178176</v>
+        <v>0.009712846768669559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.038366946328604</v>
+        <v>0.03668408704994421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4020754658511155</v>
+        <v>0.3884678915546221</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1364642286471731</v>
+        <v>0.1355704564650859</v>
       </c>
       <c r="J4" t="n">
-        <v>13.85402608076738</v>
+        <v>14.05343106157098</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9578040132504601</v>
+        <v>0.9635488303015957</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.999997400052694</v>
       </c>
       <c r="M4" t="n">
-        <v>1.980474083391796</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001</v>
+        <v>0.08342618348400153</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5141337034696452</v>
+        <v>1.297742344893839</v>
       </c>
       <c r="P4" t="n">
-        <v>8.882255538092714</v>
+        <v>0.1237150065844341</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.044256230474619</v>
+        <v>0.03763642042619362</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5662884438204172</v>
+        <v>0.3758055702459298</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1587838758326454</v>
+        <v>4.046073721177025</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08952540934346183</v>
+        <v>0.001000332957797459</v>
       </c>
       <c r="U4" t="n">
-        <v>0.100886259323031</v>
+        <v>0.5246729347276122</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0322153925027302</v>
+        <v>0.0576606103840723</v>
       </c>
       <c r="C5" t="n">
-        <v>1.221221221221221</v>
+        <v>2.182182182182182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2302430014550355</v>
+        <v>3.989532456299488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7907907907907907</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009095938370971368</v>
+        <v>0.01103392910327913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05649644336160593</v>
+        <v>0.03525781854884209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4661002276817378</v>
+        <v>0.3884236611024414</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1513810898213476</v>
+        <v>0.1331589178396894</v>
       </c>
       <c r="J5" t="n">
-        <v>10.23537347238389</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9690282278107485</v>
+        <v>0.9578155274519402</v>
       </c>
       <c r="L5" t="n">
-        <v>4.999972053371271</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>4.607098734068344</v>
+        <v>8.619775504483922</v>
       </c>
       <c r="N5" t="n">
-        <v>0.065490081578344</v>
+        <v>0.001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3611221014973444</v>
+        <v>0.3977075712878316</v>
       </c>
       <c r="P5" t="n">
+        <v>3.19634862281342</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.09603660480581587</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.194645934038034</v>
+      </c>
+      <c r="S5" t="n">
         <v>10</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.04749044933939876</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.523784981556375</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.41003033709324</v>
-      </c>
       <c r="T5" t="n">
-        <v>0.05440398086012289</v>
+        <v>0.02108527464351803</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6065745075421315</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05795659183152414</v>
+        <v>0.04840596706071199</v>
       </c>
       <c r="C6" t="n">
-        <v>2.212212212212212</v>
+        <v>2.012012012012012</v>
       </c>
       <c r="D6" t="n">
-        <v>3.760348578174824</v>
+        <v>0.8947661299521098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.6206206206206206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01114147262353592</v>
+        <v>0.00921628434819266</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03659119753644716</v>
+        <v>0.04144748884101567</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3981402163807705</v>
+        <v>0.4085006418347618</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1337784616603964</v>
+        <v>0.1397910975312285</v>
       </c>
       <c r="J6" t="n">
-        <v>14.81681109823529</v>
+        <v>12.83243477619274</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9564290079619399</v>
+        <v>0.9616471236844604</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1</v>
+        <v>0.2081321157301954</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001811456796243833</v>
+        <v>0.08558669035802752</v>
       </c>
       <c r="O6" t="n">
-        <v>1.838409133692032</v>
+        <v>1.717721278078542</v>
       </c>
       <c r="P6" t="n">
         <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04982734757565552</v>
+        <v>0.002976298389030706</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7463045518780975</v>
+        <v>0.7782264207249864</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07239767588070926</v>
+        <v>0.002467035383024546</v>
       </c>
       <c r="U6" t="n">
-        <v>1.325094053895683</v>
+        <v>0.9386104888637757</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05168149244178799</v>
+        <v>0.02517608879546347</v>
       </c>
       <c r="C7" t="n">
-        <v>2.052052052052052</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D7" t="n">
-        <v>2.304260478117354</v>
+        <v>0.2067980348322007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009662963845350092</v>
+        <v>0.009367172834834283</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0346754124407143</v>
+        <v>0.03828548130209885</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3882585313245305</v>
+        <v>0.3942774146245234</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1328849926246157</v>
+        <v>0.1372093581774151</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>13.49871179030099</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9599558450934773</v>
+        <v>0.9632370267002218</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.927646839687569</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1319863082622716</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06441441279251418</v>
+        <v>0.09323108074707918</v>
       </c>
       <c r="O7" t="n">
-        <v>1.346034421817958</v>
+        <v>1.276843333652344</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3156692771153491</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09966831405350064</v>
+        <v>0.0997130872458027</v>
       </c>
       <c r="R7" t="n">
-        <v>1.997442325815224</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>9.112021644313042</v>
+        <v>8.330884481923365</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03884681306394264</v>
+        <v>0.09995648834485781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1</v>
+        <v>1.607532886563191</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05587505870324624</v>
+        <v>0.05146756164341978</v>
       </c>
       <c r="C8" t="n">
-        <v>2.142142142142142</v>
+        <v>2.022022022022022</v>
       </c>
       <c r="D8" t="n">
-        <v>3.430669170215062</v>
+        <v>0.3381774068925703</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5305305305305306</v>
+        <v>1.221221221221221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01114020841762739</v>
+        <v>0.006081176685708568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03652577234333051</v>
+        <v>0.1081461605294008</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3967815257275528</v>
+        <v>0.646792628401186</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1333854099264649</v>
+        <v>0.1770246039255578</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>6.017799935862806</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9567375842337407</v>
+        <v>0.9709225797038642</v>
       </c>
       <c r="L8" t="n">
-        <v>4.995919244697487</v>
+        <v>4.081019563190511</v>
       </c>
       <c r="M8" t="n">
-        <v>4.650280136220787</v>
+        <v>2.757533654867879</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01101759454878314</v>
+        <v>0.08110323617867893</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9807515242520611</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>0.6551453839420436</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07167349245648641</v>
+        <v>0.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.054084402137878</v>
+        <v>1.843186579891317</v>
       </c>
       <c r="S8" t="n">
-        <v>3.958686039852683</v>
+        <v>0.1983521825727577</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04284187951161465</v>
+        <v>0.02288758025275422</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0537364926748641</v>
+        <v>0.0593940129885548</v>
       </c>
       <c r="C9" t="n">
-        <v>2.142142142142142</v>
+        <v>2.272272272272272</v>
       </c>
       <c r="D9" t="n">
-        <v>2.377746056382593</v>
+        <v>3.769036508081109</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01168259684758406</v>
+        <v>0.01162090945482139</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03589386616729578</v>
+        <v>0.03950134475229599</v>
       </c>
       <c r="H9" t="n">
-        <v>0.394852968150153</v>
+        <v>0.4115657638955569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.133125181189605</v>
+        <v>0.1339773281678363</v>
       </c>
       <c r="J9" t="n">
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9572685078009578</v>
+        <v>0.9559770620600205</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.999540726837744</v>
       </c>
       <c r="M9" t="n">
-        <v>9.910539949755098</v>
+        <v>6.580047005135089</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07449088487374744</v>
+        <v>0.02326674815429303</v>
       </c>
       <c r="O9" t="n">
-        <v>1.329409025164946</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1</v>
+        <v>2.227887887229347</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05681113607345343</v>
+        <v>0.002195805355223513</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9277721090843005</v>
+        <v>1.299069367060458</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1</v>
+        <v>0.5514227683129158</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06096904606863664</v>
+        <v>0.001</v>
       </c>
       <c r="U9" t="n">
-        <v>1.278516457472974</v>
+        <v>1.372511278484494</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05849011395370704</v>
+        <v>0.03587028732690287</v>
       </c>
       <c r="C10" t="n">
-        <v>2.222222222222222</v>
+        <v>1.361361361361361</v>
       </c>
       <c r="D10" t="n">
-        <v>3.885954676676989</v>
+        <v>0.3157781710034363</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.860860860860861</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01190897759039806</v>
+        <v>0.01127668989328209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03768243694949941</v>
+        <v>0.06574551672020316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4031777022807744</v>
+        <v>0.5078020438231696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1336675710570615</v>
+        <v>0.156482446235482</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>9.044683119153136</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9567031058523316</v>
+        <v>0.9652401954949257</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.73485241114097</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09984683142417067</v>
+        <v>0.001</v>
       </c>
       <c r="O10" t="n">
-        <v>1.128649189591819</v>
+        <v>1.296336007945316</v>
       </c>
       <c r="P10" t="n">
-        <v>7.812164662343113</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001</v>
+        <v>0.077775556829092</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1</v>
+        <v>1.785140210091787</v>
       </c>
       <c r="S10" t="n">
-        <v>3.717148631196651</v>
+        <v>4.882977219503445</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09655463030219261</v>
+        <v>0.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.956717607946502</v>
+        <v>0.8863301902806276</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05961392775961727</v>
+        <v>0.05510387389287198</v>
       </c>
       <c r="C11" t="n">
-        <v>2.222222222222222</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D11" t="n">
-        <v>4.473291169204085</v>
+        <v>2.706383726621728</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01133757173928745</v>
+        <v>0.009386092427800759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03641515481332039</v>
+        <v>0.03698450152396379</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4002940031923148</v>
+        <v>0.4017170658027531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.133301340377688</v>
+        <v>0.1335255359774468</v>
       </c>
       <c r="J11" t="n">
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9563988440822683</v>
+        <v>0.9643703541042469</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>2.886526063917516</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1</v>
+        <v>0.08030181342003477</v>
       </c>
       <c r="O11" t="n">
-        <v>1.201864995142882</v>
+        <v>0.585493012799872</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1088687592182359</v>
+        <v>8.178670085956682</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001</v>
+        <v>0.07633147836954028</v>
       </c>
       <c r="R11" t="n">
-        <v>1.995662696568963</v>
+        <v>0.9032812404886439</v>
       </c>
       <c r="S11" t="n">
-        <v>7.723715773387243</v>
+        <v>8.089338101086042</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04474285729496679</v>
+        <v>0.01514925005047561</v>
       </c>
       <c r="U11" t="n">
-        <v>1.475172925135703</v>
+        <v>1.767104508470529</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05960999336385901</v>
+        <v>0.05299590268612821</v>
       </c>
       <c r="C12" t="n">
-        <v>2.392392392392392</v>
+        <v>2.112112112112112</v>
       </c>
       <c r="D12" t="n">
-        <v>2.639080257125614</v>
+        <v>2.377628529475234</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5805805805805806</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01199019999267307</v>
+        <v>0.01296156828854239</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04056013186497866</v>
+        <v>0.03571973493951454</v>
       </c>
       <c r="H12" t="n">
-        <v>0.416041614038004</v>
+        <v>0.3856056650198942</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1371836092546322</v>
+        <v>0.1335729527529247</v>
       </c>
       <c r="J12" t="n">
-        <v>13.7439462021475</v>
+        <v>14.81759253827494</v>
       </c>
       <c r="K12" t="n">
-        <v>0.956552198263071</v>
+        <v>0.9576853991440878</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>7.484191209980189</v>
+        <v>3.535364881964782</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0514483331096272</v>
+        <v>0.05969206579710485</v>
       </c>
       <c r="O12" t="n">
-        <v>1.234256478938683</v>
+        <v>0.782643197440286</v>
       </c>
       <c r="P12" t="n">
-        <v>9.086037020356811</v>
+        <v>0.1060856023660148</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01651341794700882</v>
+        <v>0.09700545538793413</v>
       </c>
       <c r="R12" t="n">
-        <v>1.633140213462039</v>
+        <v>1.930994347323927</v>
       </c>
       <c r="S12" t="n">
-        <v>9.915405434652868</v>
+        <v>9.681697969279298</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0417146393182585</v>
+        <v>0.07614741611678903</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6083724072486175</v>
+        <v>0.5073739996113918</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0299433668819233</v>
+        <v>0.03105690358959102</v>
       </c>
       <c r="C13" t="n">
-        <v>1.121121121121121</v>
+        <v>1.171171171171171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3091511585964352</v>
+        <v>0.2848917087941022</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008772250127103852</v>
+        <v>0.009490081813985187</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04965571375558165</v>
+        <v>0.05133194479726943</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4403138573183009</v>
+        <v>0.4503803386530519</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1467743475813724</v>
+        <v>0.147485576689548</v>
       </c>
       <c r="J13" t="n">
-        <v>11.05700093713074</v>
+        <v>11.12359205059776</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9649973288595961</v>
+        <v>0.967978786426187</v>
       </c>
       <c r="L13" t="n">
-        <v>4.882312817250928</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1487219730051864</v>
+        <v>1.07667735161813</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09999955917250103</v>
+        <v>0.09241995464608189</v>
       </c>
       <c r="O13" t="n">
-        <v>1.073397550010207</v>
+        <v>0.7085158254121687</v>
       </c>
       <c r="P13" t="n">
-        <v>3.814099105832669</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.007535902581333246</v>
+        <v>0.05706445496176429</v>
       </c>
       <c r="R13" t="n">
-        <v>1.172342614166793</v>
+        <v>0.4432080071750013</v>
       </c>
       <c r="S13" t="n">
-        <v>9.290529670034909</v>
+        <v>10</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09998468031229624</v>
+        <v>0.001</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5246194809300068</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02761608844330986</v>
+        <v>0.05782919125860744</v>
       </c>
       <c r="C14" t="n">
-        <v>1.031031031031031</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2080853179555475</v>
+        <v>3.962061652548921</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01061695377249681</v>
+        <v>0.01269159160353504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04491648655914294</v>
+        <v>0.03915382661504172</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4206532178282191</v>
+        <v>0.4151134366917265</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1428421349352124</v>
+        <v>0.1356702342329744</v>
       </c>
       <c r="J14" t="n">
-        <v>12.08361207585047</v>
+        <v>14.1411872775133</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9607910401136882</v>
+        <v>0.9717254723724748</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4066577131219126</v>
+        <v>3.8694168379987</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08494264526872637</v>
+        <v>0.09986607443394439</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0.3959063532172055</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>6.151369127252077</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004388856354175465</v>
+        <v>0.03939146944274396</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1</v>
+        <v>0.2279548952707696</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1268422707189111</v>
+        <v>0.1</v>
       </c>
       <c r="T14" t="n">
         <v>0.001</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1</v>
+        <v>1.593606139467955</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02822372771720442</v>
+        <v>0.05661907751382071</v>
       </c>
       <c r="C15" t="n">
-        <v>1.041041041041041</v>
+        <v>2.182182182182182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3420711825377065</v>
+        <v>3.346715353588187</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008968177838589317</v>
+        <v>0.01110885082563567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04635907952508195</v>
+        <v>0.03751186742371829</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4293740036105124</v>
+        <v>0.4037954638972258</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1441209297615407</v>
+        <v>0.1335886795201068</v>
       </c>
       <c r="J15" t="n">
-        <v>11.74355778563756</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9679680412733722</v>
+        <v>0.9570319902528542</v>
       </c>
       <c r="L15" t="n">
-        <v>4.93003306681962</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1</v>
+        <v>0.05710680754421502</v>
       </c>
       <c r="O15" t="n">
-        <v>1.981701918411124</v>
+        <v>1.009768847293961</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08569191040516</v>
+        <v>9.999982213787758</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09856082968039348</v>
+        <v>0.01510934661543125</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6135723110868279</v>
+        <v>1.339661803927288</v>
       </c>
       <c r="S15" t="n">
-        <v>2.597520176345155</v>
+        <v>6.40345396510795</v>
       </c>
       <c r="T15" t="n">
-        <v>0.025176981068452</v>
+        <v>0.01354231824193584</v>
       </c>
       <c r="U15" t="n">
-        <v>1.562440353484564</v>
+        <v>1.536114404351539</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05573377033404626</v>
+        <v>0.04450521689131276</v>
       </c>
       <c r="C16" t="n">
-        <v>2.132132132132132</v>
+        <v>1.731731731731732</v>
       </c>
       <c r="D16" t="n">
-        <v>3.466449561146681</v>
+        <v>0.5936732999742012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5305305305305306</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01032782241307939</v>
+        <v>0.005855899969252737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03624999738515654</v>
+        <v>0.07525039066336889</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3960485723199539</v>
+        <v>0.5487822208499673</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1338466351302578</v>
+        <v>0.1616420833184704</v>
       </c>
       <c r="J16" t="n">
-        <v>14.74608911942014</v>
+        <v>8.51902424362337</v>
       </c>
       <c r="K16" t="n">
-        <v>0.958189818047081</v>
+        <v>0.9699148337687717</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.840250778491304</v>
       </c>
       <c r="M16" t="n">
-        <v>4.034871698896146</v>
+        <v>0.109058264767537</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04182263559847972</v>
+        <v>0.1</v>
       </c>
       <c r="O16" t="n">
+        <v>1.485123942340931</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.04510684734828282</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8125956490436941</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9.997958240504838</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.02257659177059024</v>
+      </c>
+      <c r="U16" t="n">
         <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>9.829211247757934</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.01854394328300465</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.07013046554689835</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05480138201780366</v>
+        <v>0.05674744619328508</v>
       </c>
       <c r="C17" t="n">
-        <v>2.092092092092092</v>
+        <v>2.202202202202202</v>
       </c>
       <c r="D17" t="n">
-        <v>3.517816993955952</v>
+        <v>3.35651727259817</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008223795572665581</v>
+        <v>0.01042394712664359</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03390467614410127</v>
+        <v>0.03468542838297911</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3813652087456873</v>
+        <v>0.3854836689164545</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1327248632890127</v>
+        <v>0.1330391200052407</v>
       </c>
       <c r="J17" t="n">
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9626365167142611</v>
+        <v>0.959098973473467</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1</v>
+        <v>0.0915029484194069</v>
       </c>
       <c r="O17" t="n">
-        <v>1.937348424803431</v>
+        <v>1.999956048892989</v>
       </c>
       <c r="P17" t="n">
-        <v>9.558454020146169</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03495979776224319</v>
+        <v>0.1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4583671476855786</v>
+        <v>1.830342565987721</v>
       </c>
       <c r="S17" t="n">
-        <v>6.149738927970898</v>
+        <v>8.229355545488966</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1</v>
+        <v>0.01914131086267104</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1332686506303221</v>
+        <v>1.681709484619102</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05824061322016313</v>
+        <v>0.02380769692555788</v>
       </c>
       <c r="C18" t="n">
-        <v>2.202202202202202</v>
+        <v>0.8708708708708709</v>
       </c>
       <c r="D18" t="n">
-        <v>3.958981878739054</v>
+        <v>0.2168829736937383</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5805805805805806</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01100842778096</v>
+        <v>0.008897610031062483</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03743543252332073</v>
+        <v>0.03622943597181532</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4035995215667367</v>
+        <v>0.3826091296614728</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1334781997203867</v>
+        <v>0.1358080109784343</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>13.90078225134105</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9571322261070488</v>
+        <v>0.9656494491350284</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5875838313431866</v>
+        <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001</v>
+        <v>0.07401068795582359</v>
       </c>
       <c r="O18" t="n">
-        <v>1.406658323005039</v>
+        <v>1.989029246492311</v>
       </c>
       <c r="P18" t="n">
-        <v>4.593181033168221</v>
+        <v>0.480811512172274</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01087572631889165</v>
+        <v>0.03185358677221741</v>
       </c>
       <c r="R18" t="n">
-        <v>1.874763047945138</v>
+        <v>0.3816777550174956</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7547176747092439</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
-        <v>0.00157987706897742</v>
+        <v>0.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.565569832630874</v>
+        <v>1.570703282534778</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05704400853769763</v>
+        <v>0.05531130841606791</v>
       </c>
       <c r="C19" t="n">
-        <v>2.222222222222222</v>
+        <v>2.132132132132132</v>
       </c>
       <c r="D19" t="n">
-        <v>3.169782640998431</v>
+        <v>3.334239308465589</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01152430849189212</v>
+        <v>0.009660880218253353</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03758987754597318</v>
+        <v>0.034426175324767</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4022973030653648</v>
+        <v>0.3862420069696982</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1347773195906758</v>
+        <v>0.132864268076308</v>
       </c>
       <c r="J19" t="n">
-        <v>14.4641013916041</v>
+        <v>14.99992894479948</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9577033642936942</v>
+        <v>0.9597140732464257</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>4.548952406506567</v>
+        <v>0.576351553050287</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0405964359393669</v>
+        <v>0.07215411526566699</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6027095200431456</v>
+        <v>1.466693046021339</v>
       </c>
       <c r="P19" t="n">
-        <v>9.036127650319759</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03232860505095744</v>
+        <v>0.0355834741252167</v>
       </c>
       <c r="R19" t="n">
-        <v>1.724818666634588</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1</v>
+        <v>9.686670906908256</v>
       </c>
       <c r="T19" t="n">
-        <v>0.08243176964224536</v>
+        <v>0.00115080437270588</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5761832747407164</v>
+        <v>0.1107379484108859</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0357747843378891</v>
+        <v>0.05725696615113472</v>
       </c>
       <c r="C20" t="n">
-        <v>1.371371371371371</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3044373173561599</v>
+        <v>3.758059953261866</v>
       </c>
       <c r="E20" t="n">
-        <v>0.870870870870871</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006976680735907097</v>
+        <v>0.01125256492996781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06277806532819809</v>
+        <v>0.03758429904795579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4907875922520109</v>
+        <v>0.4047931337919869</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1551951177860293</v>
+        <v>0.1336211159837172</v>
       </c>
       <c r="J20" t="n">
-        <v>9.556569245820507</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>0.96757086118962</v>
+        <v>0.9578475901409622</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>3.555660281239584</v>
+        <v>4.706669203989596</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07964057894740627</v>
+        <v>0.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.568524591914569</v>
+        <v>1.135354688170698</v>
       </c>
       <c r="P20" t="n">
-        <v>8.375270243435761</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1</v>
+        <v>0.002631177447754737</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.199372780971613</v>
+        <v>10</v>
       </c>
       <c r="T20" t="n">
-        <v>0.002148136734127473</v>
+        <v>0.04101197274817439</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9692862765677932</v>
+        <v>1.641082182572999</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03054741848488498</v>
+        <v>0.02690595217977734</v>
       </c>
       <c r="C21" t="n">
-        <v>1.141141141141141</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250908416903256</v>
+        <v>0.2004457370807372</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01102474981499462</v>
+        <v>0.01053055934195876</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0526147052954848</v>
+        <v>0.04304240274258324</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4604727064321824</v>
+        <v>0.4151190846093565</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1479506851323456</v>
+        <v>0.1409198269433</v>
       </c>
       <c r="J21" t="n">
-        <v>10.90905912677457</v>
+        <v>12.56777340186114</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9606391697681245</v>
+        <v>0.960370457510033</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4.999940589985997</v>
       </c>
       <c r="M21" t="n">
-        <v>4.895312235421089</v>
+        <v>9.78820092380629</v>
       </c>
       <c r="N21" t="n">
-        <v>0.003065399875786588</v>
+        <v>0.01681505702897334</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1</v>
+        <v>1.530691707909603</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>0.1173338446159384</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05692670343341884</v>
+        <v>0.06902780933422073</v>
       </c>
       <c r="R21" t="n">
-        <v>1.99932968900502</v>
+        <v>1.388505729680412</v>
       </c>
       <c r="S21" t="n">
-        <v>9.998873864528992</v>
+        <v>0.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09591712368490035</v>
+        <v>0.0782517207056779</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1084731213616351</v>
+        <v>0.1557249966095606</v>
       </c>
     </row>
   </sheetData>
